--- a/HW3_Excel1/HW3_114306055.xlsx
+++ b/HW3_Excel1/HW3_114306055.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyurong/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyurong/Documents/GitHub/1141_IntroToCS_114306055/HW3_Excel1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC0F797-AAE2-D940-87F9-7469088E0F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6763C2-F78E-994E-98FF-2D2DAE814193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12460" xr2:uid="{60C2E2F6-AD98-4042-9BF5-DA3DB7B4AD4C}"/>
   </bookViews>
@@ -2771,7 +2771,7 @@
         <v>B</v>
       </c>
       <c r="L5" s="5" t="str">
-        <f t="shared" ref="L3:L15" si="3">IF(J5&lt;60,"fail","pass")</f>
+        <f t="shared" ref="L5:L15" si="3">IF(J5&lt;60,"fail","pass")</f>
         <v>pass</v>
       </c>
     </row>
